--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc206_SAV_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc206_SAV_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3768" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="7">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +153,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +183,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="6" customFormat="true">
+      <c r="A1" t="s" s="6">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="6">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="6">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="6">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="6">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="6">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +230,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +276,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -361,10 +385,10 @@
       <c r="I8">
         <f>((C8-C7)^2+(D8- D7)^2)^.5</f>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="2" t="s">
+      <c r="J8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L8" t="n">
@@ -408,28 +432,28 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="2">
+      <c r="A10" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="2">
+      <c r="B10" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C10" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s" s="2">
+      <c r="C10" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E10" t="s" s="2">
+      <c r="E10" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F10" t="s" s="2">
+      <c r="F10" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="2">
+      <c r="G10" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="2">
+      <c r="H10" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -454,28 +478,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="s" s="2">
+      <c r="B12" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C12" t="s" s="2">
+      <c r="C12" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D12" t="s" s="2">
+      <c r="D12" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E12" t="s" s="2">
+      <c r="E12" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="F12" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G12" t="s" s="2">
+      <c r="G12" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H12" t="s" s="2">
+      <c r="H12" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I12" t="s" s="2">
+      <c r="I12" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -592,10 +616,10 @@
       <c r="I16">
         <f>((C16-C15)^2+(D16- D15)^2)^.5</f>
       </c>
-      <c r="J16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="2" t="s">
+      <c r="J16" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L16" t="n">
@@ -639,28 +663,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="2">
+      <c r="A18" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B18" t="s" s="2">
+      <c r="B18" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C18" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D18" t="s" s="2">
+      <c r="C18" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E18" t="s" s="2">
+      <c r="E18" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F18" t="s" s="2">
+      <c r="F18" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G18" t="s" s="2">
+      <c r="G18" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H18" t="s" s="2">
+      <c r="H18" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -685,28 +709,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="B20" t="s" s="2">
+      <c r="B20" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C20" t="s" s="2">
+      <c r="C20" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D20" t="s" s="2">
+      <c r="D20" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E20" t="s" s="2">
+      <c r="E20" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F20" t="s" s="2">
+      <c r="F20" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G20" t="s" s="2">
+      <c r="G20" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H20" t="s" s="2">
+      <c r="H20" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I20" t="s" s="2">
+      <c r="I20" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -823,10 +847,10 @@
       <c r="I24">
         <f>((C24-C23)^2+(D24- D23)^2)^.5</f>
       </c>
-      <c r="J24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="2" t="s">
+      <c r="J24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L24" t="n">
@@ -870,28 +894,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s" s="2">
+      <c r="A26" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B26" t="s" s="2">
+      <c r="B26" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C26" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D26" t="s" s="2">
+      <c r="C26" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E26" t="s" s="2">
+      <c r="E26" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F26" t="s" s="2">
+      <c r="F26" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G26" t="s" s="2">
+      <c r="G26" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H26" t="s" s="2">
+      <c r="H26" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -916,28 +940,28 @@
       </c>
     </row>
     <row r="28">
-      <c r="B28" t="s" s="2">
+      <c r="B28" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C28" t="s" s="2">
+      <c r="C28" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D28" t="s" s="2">
+      <c r="D28" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E28" t="s" s="2">
+      <c r="E28" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F28" t="s" s="2">
+      <c r="F28" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G28" t="s" s="2">
+      <c r="G28" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H28" t="s" s="2">
+      <c r="H28" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I28" t="s" s="2">
+      <c r="I28" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1054,10 +1078,10 @@
       <c r="I32">
         <f>((C32-C31)^2+(D32- D31)^2)^.5</f>
       </c>
-      <c r="J32" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K32" s="2" t="s">
+      <c r="J32" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K32" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L32" t="n">
@@ -1101,28 +1125,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s" s="2">
+      <c r="A34" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B34" t="s" s="2">
+      <c r="B34" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C34" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D34" t="s" s="2">
+      <c r="C34" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D34" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E34" t="s" s="2">
+      <c r="E34" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F34" t="s" s="2">
+      <c r="F34" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G34" t="s" s="2">
+      <c r="G34" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H34" t="s" s="2">
+      <c r="H34" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1147,28 +1171,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="B36" t="s" s="2">
+      <c r="B36" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C36" t="s" s="2">
+      <c r="C36" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D36" t="s" s="2">
+      <c r="D36" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E36" t="s" s="2">
+      <c r="E36" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F36" t="s" s="2">
+      <c r="F36" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G36" t="s" s="2">
+      <c r="G36" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H36" t="s" s="2">
+      <c r="H36" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I36" t="s" s="2">
+      <c r="I36" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1343,10 +1367,10 @@
       <c r="I42">
         <f>((C42-C41)^2+(D42- D41)^2)^.5</f>
       </c>
-      <c r="J42" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K42" s="2" t="s">
+      <c r="J42" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K42" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L42" t="n">
@@ -1390,28 +1414,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s" s="2">
+      <c r="A44" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B44" t="s" s="2">
+      <c r="B44" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C44" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D44" t="s" s="2">
+      <c r="C44" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D44" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E44" t="s" s="2">
+      <c r="E44" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F44" t="s" s="2">
+      <c r="F44" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G44" t="s" s="2">
+      <c r="G44" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H44" t="s" s="2">
+      <c r="H44" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1436,28 +1460,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="B46" t="s" s="2">
+      <c r="B46" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C46" t="s" s="2">
+      <c r="C46" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D46" t="s" s="2">
+      <c r="D46" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E46" t="s" s="2">
+      <c r="E46" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F46" t="s" s="2">
+      <c r="F46" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G46" t="s" s="2">
+      <c r="G46" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H46" t="s" s="2">
+      <c r="H46" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I46" t="s" s="2">
+      <c r="I46" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1545,10 +1569,10 @@
       <c r="I49">
         <f>((C49-C48)^2+(D49- D48)^2)^.5</f>
       </c>
-      <c r="J49" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K49" s="2" t="s">
+      <c r="J49" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K49" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L49" t="n">
@@ -1592,28 +1616,28 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="s" s="2">
+      <c r="A51" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B51" t="s" s="2">
+      <c r="B51" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C51" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D51" t="s" s="2">
+      <c r="C51" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D51" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E51" t="s" s="2">
+      <c r="E51" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F51" t="s" s="2">
+      <c r="F51" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G51" t="s" s="2">
+      <c r="G51" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H51" t="s" s="2">
+      <c r="H51" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1638,28 +1662,28 @@
       </c>
     </row>
     <row r="53">
-      <c r="B53" t="s" s="2">
+      <c r="B53" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C53" t="s" s="2">
+      <c r="C53" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D53" t="s" s="2">
+      <c r="D53" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E53" t="s" s="2">
+      <c r="E53" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F53" t="s" s="2">
+      <c r="F53" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G53" t="s" s="2">
+      <c r="G53" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H53" t="s" s="2">
+      <c r="H53" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I53" t="s" s="2">
+      <c r="I53" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -1892,10 +1916,10 @@
       <c r="I61">
         <f>((C61-C60)^2+(D61- D60)^2)^.5</f>
       </c>
-      <c r="J61" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K61" s="2" t="s">
+      <c r="J61" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K61" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L61" t="n">
@@ -1939,28 +1963,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="s" s="2">
+      <c r="A63" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B63" t="s" s="2">
+      <c r="B63" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C63" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D63" t="s" s="2">
+      <c r="C63" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D63" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E63" t="s" s="2">
+      <c r="E63" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F63" t="s" s="2">
+      <c r="F63" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G63" t="s" s="2">
+      <c r="G63" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H63" t="s" s="2">
+      <c r="H63" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -1985,28 +2009,28 @@
       </c>
     </row>
     <row r="65">
-      <c r="B65" t="s" s="2">
+      <c r="B65" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C65" t="s" s="2">
+      <c r="C65" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D65" t="s" s="2">
+      <c r="D65" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E65" t="s" s="2">
+      <c r="E65" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F65" t="s" s="2">
+      <c r="F65" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G65" t="s" s="2">
+      <c r="G65" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H65" t="s" s="2">
+      <c r="H65" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I65" t="s" s="2">
+      <c r="I65" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2094,10 +2118,10 @@
       <c r="I68">
         <f>((C68-C67)^2+(D68- D67)^2)^.5</f>
       </c>
-      <c r="J68" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K68" s="2" t="s">
+      <c r="J68" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K68" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L68" t="n">
@@ -2141,28 +2165,28 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="s" s="2">
+      <c r="A70" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B70" t="s" s="2">
+      <c r="B70" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C70" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D70" t="s" s="2">
+      <c r="C70" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D70" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E70" t="s" s="2">
+      <c r="E70" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F70" t="s" s="2">
+      <c r="F70" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G70" t="s" s="2">
+      <c r="G70" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H70" t="s" s="2">
+      <c r="H70" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2187,28 +2211,28 @@
       </c>
     </row>
     <row r="72">
-      <c r="B72" t="s" s="2">
+      <c r="B72" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C72" t="s" s="2">
+      <c r="C72" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D72" t="s" s="2">
+      <c r="D72" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E72" t="s" s="2">
+      <c r="E72" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F72" t="s" s="2">
+      <c r="F72" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G72" t="s" s="2">
+      <c r="G72" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H72" t="s" s="2">
+      <c r="H72" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I72" t="s" s="2">
+      <c r="I72" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2354,10 +2378,10 @@
       <c r="I77">
         <f>((C77-C76)^2+(D77- D76)^2)^.5</f>
       </c>
-      <c r="J77" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K77" s="2" t="s">
+      <c r="J77" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K77" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L77" t="n">
@@ -2401,28 +2425,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="s" s="2">
+      <c r="A79" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B79" t="s" s="2">
+      <c r="B79" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C79" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D79" t="s" s="2">
+      <c r="C79" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D79" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E79" t="s" s="2">
+      <c r="E79" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F79" t="s" s="2">
+      <c r="F79" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G79" t="s" s="2">
+      <c r="G79" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H79" t="s" s="2">
+      <c r="H79" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2447,28 +2471,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="B81" t="s" s="2">
+      <c r="B81" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C81" t="s" s="2">
+      <c r="C81" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D81" t="s" s="2">
+      <c r="D81" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E81" t="s" s="2">
+      <c r="E81" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F81" t="s" s="2">
+      <c r="F81" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G81" t="s" s="2">
+      <c r="G81" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H81" t="s" s="2">
+      <c r="H81" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I81" t="s" s="2">
+      <c r="I81" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2585,10 +2609,10 @@
       <c r="I85">
         <f>((C85-C84)^2+(D85- D84)^2)^.5</f>
       </c>
-      <c r="J85" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K85" s="2" t="s">
+      <c r="J85" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K85" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L85" t="n">
@@ -2632,28 +2656,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="s" s="2">
+      <c r="A87" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B87" t="s" s="2">
+      <c r="B87" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C87" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D87" t="s" s="2">
+      <c r="C87" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D87" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E87" t="s" s="2">
+      <c r="E87" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F87" t="s" s="2">
+      <c r="F87" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G87" t="s" s="2">
+      <c r="G87" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H87" t="s" s="2">
+      <c r="H87" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2678,28 +2702,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="B89" t="s" s="2">
+      <c r="B89" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C89" t="s" s="2">
+      <c r="C89" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D89" t="s" s="2">
+      <c r="D89" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E89" t="s" s="2">
+      <c r="E89" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F89" t="s" s="2">
+      <c r="F89" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G89" t="s" s="2">
+      <c r="G89" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H89" t="s" s="2">
+      <c r="H89" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I89" t="s" s="2">
+      <c r="I89" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2787,10 +2811,10 @@
       <c r="I92">
         <f>((C92-C91)^2+(D92- D91)^2)^.5</f>
       </c>
-      <c r="J92" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K92" s="2" t="s">
+      <c r="J92" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K92" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L92" t="n">
@@ -2834,28 +2858,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="s" s="2">
+      <c r="A94" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B94" t="s" s="2">
+      <c r="B94" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C94" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D94" t="s" s="2">
+      <c r="C94" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D94" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E94" t="s" s="2">
+      <c r="E94" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F94" t="s" s="2">
+      <c r="F94" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G94" t="s" s="2">
+      <c r="G94" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H94" t="s" s="2">
+      <c r="H94" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -2880,28 +2904,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="B96" t="s" s="2">
+      <c r="B96" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C96" t="s" s="2">
+      <c r="C96" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D96" t="s" s="2">
+      <c r="D96" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E96" t="s" s="2">
+      <c r="E96" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F96" t="s" s="2">
+      <c r="F96" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G96" t="s" s="2">
+      <c r="G96" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H96" t="s" s="2">
+      <c r="H96" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I96" t="s" s="2">
+      <c r="I96" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -2989,10 +3013,10 @@
       <c r="I99">
         <f>((C99-C98)^2+(D99- D98)^2)^.5</f>
       </c>
-      <c r="J99" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K99" s="2" t="s">
+      <c r="J99" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K99" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L99" t="n">
@@ -3036,28 +3060,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="s" s="2">
+      <c r="A101" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B101" t="s" s="2">
+      <c r="B101" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C101" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D101" t="s" s="2">
+      <c r="C101" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D101" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E101" t="s" s="2">
+      <c r="E101" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F101" t="s" s="2">
+      <c r="F101" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G101" t="s" s="2">
+      <c r="G101" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H101" t="s" s="2">
+      <c r="H101" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3082,28 +3106,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="B103" t="s" s="2">
+      <c r="B103" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C103" t="s" s="2">
+      <c r="C103" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D103" t="s" s="2">
+      <c r="D103" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E103" t="s" s="2">
+      <c r="E103" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F103" t="s" s="2">
+      <c r="F103" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G103" t="s" s="2">
+      <c r="G103" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H103" t="s" s="2">
+      <c r="H103" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I103" t="s" s="2">
+      <c r="I103" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3249,10 +3273,10 @@
       <c r="I108">
         <f>((C108-C107)^2+(D108- D107)^2)^.5</f>
       </c>
-      <c r="J108" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K108" s="2" t="s">
+      <c r="J108" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K108" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L108" t="n">
@@ -3296,28 +3320,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="s" s="2">
+      <c r="A110" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B110" t="s" s="2">
+      <c r="B110" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C110" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D110" t="s" s="2">
+      <c r="C110" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D110" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E110" t="s" s="2">
+      <c r="E110" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F110" t="s" s="2">
+      <c r="F110" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G110" t="s" s="2">
+      <c r="G110" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H110" t="s" s="2">
+      <c r="H110" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3342,28 +3366,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="B112" t="s" s="2">
+      <c r="B112" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C112" t="s" s="2">
+      <c r="C112" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D112" t="s" s="2">
+      <c r="D112" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E112" t="s" s="2">
+      <c r="E112" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F112" t="s" s="2">
+      <c r="F112" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G112" t="s" s="2">
+      <c r="G112" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H112" t="s" s="2">
+      <c r="H112" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I112" t="s" s="2">
+      <c r="I112" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3451,10 +3475,10 @@
       <c r="I115">
         <f>((C115-C114)^2+(D115- D114)^2)^.5</f>
       </c>
-      <c r="J115" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K115" s="2" t="s">
+      <c r="J115" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K115" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L115" t="n">
@@ -3498,28 +3522,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="s" s="2">
+      <c r="A117" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B117" t="s" s="2">
+      <c r="B117" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C117" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D117" t="s" s="2">
+      <c r="C117" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D117" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E117" t="s" s="2">
+      <c r="E117" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F117" t="s" s="2">
+      <c r="F117" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G117" t="s" s="2">
+      <c r="G117" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H117" t="s" s="2">
+      <c r="H117" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3544,28 +3568,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="B119" t="s" s="2">
+      <c r="B119" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C119" t="s" s="2">
+      <c r="C119" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D119" t="s" s="2">
+      <c r="D119" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E119" t="s" s="2">
+      <c r="E119" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F119" t="s" s="2">
+      <c r="F119" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G119" t="s" s="2">
+      <c r="G119" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H119" t="s" s="2">
+      <c r="H119" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I119" t="s" s="2">
+      <c r="I119" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3653,10 +3677,10 @@
       <c r="I122">
         <f>((C122-C121)^2+(D122- D121)^2)^.5</f>
       </c>
-      <c r="J122" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K122" s="2" t="s">
+      <c r="J122" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K122" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L122" t="n">
@@ -3700,28 +3724,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="s" s="2">
+      <c r="A124" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B124" t="s" s="2">
+      <c r="B124" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C124" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D124" t="s" s="2">
+      <c r="C124" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D124" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E124" t="s" s="2">
+      <c r="E124" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F124" t="s" s="2">
+      <c r="F124" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G124" t="s" s="2">
+      <c r="G124" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H124" t="s" s="2">
+      <c r="H124" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3746,28 +3770,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="B126" t="s" s="2">
+      <c r="B126" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C126" t="s" s="2">
+      <c r="C126" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D126" t="s" s="2">
+      <c r="D126" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E126" t="s" s="2">
+      <c r="E126" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F126" t="s" s="2">
+      <c r="F126" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G126" t="s" s="2">
+      <c r="G126" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H126" t="s" s="2">
+      <c r="H126" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I126" t="s" s="2">
+      <c r="I126" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -3855,10 +3879,10 @@
       <c r="I129">
         <f>((C129-C128)^2+(D129- D128)^2)^.5</f>
       </c>
-      <c r="J129" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K129" s="2" t="s">
+      <c r="J129" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K129" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L129" t="n">
@@ -3902,28 +3926,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="s" s="2">
+      <c r="A131" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B131" t="s" s="2">
+      <c r="B131" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C131" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D131" t="s" s="2">
+      <c r="C131" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D131" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E131" t="s" s="2">
+      <c r="E131" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F131" t="s" s="2">
+      <c r="F131" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G131" t="s" s="2">
+      <c r="G131" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H131" t="s" s="2">
+      <c r="H131" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -3948,28 +3972,28 @@
       </c>
     </row>
     <row r="133">
-      <c r="B133" t="s" s="2">
+      <c r="B133" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C133" t="s" s="2">
+      <c r="C133" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D133" t="s" s="2">
+      <c r="D133" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E133" t="s" s="2">
+      <c r="E133" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F133" t="s" s="2">
+      <c r="F133" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G133" t="s" s="2">
+      <c r="G133" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H133" t="s" s="2">
+      <c r="H133" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I133" t="s" s="2">
+      <c r="I133" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4115,10 +4139,10 @@
       <c r="I138">
         <f>((C138-C137)^2+(D138- D137)^2)^.5</f>
       </c>
-      <c r="J138" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K138" s="2" t="s">
+      <c r="J138" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K138" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L138" t="n">
@@ -4162,28 +4186,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="s" s="2">
+      <c r="A140" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B140" t="s" s="2">
+      <c r="B140" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C140" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D140" t="s" s="2">
+      <c r="C140" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D140" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E140" t="s" s="2">
+      <c r="E140" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F140" t="s" s="2">
+      <c r="F140" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G140" t="s" s="2">
+      <c r="G140" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H140" t="s" s="2">
+      <c r="H140" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4208,28 +4232,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="B142" t="s" s="2">
+      <c r="B142" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C142" t="s" s="2">
+      <c r="C142" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D142" t="s" s="2">
+      <c r="D142" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E142" t="s" s="2">
+      <c r="E142" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F142" t="s" s="2">
+      <c r="F142" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G142" t="s" s="2">
+      <c r="G142" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H142" t="s" s="2">
+      <c r="H142" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I142" t="s" s="2">
+      <c r="I142" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4346,10 +4370,10 @@
       <c r="I146">
         <f>((C146-C145)^2+(D146- D145)^2)^.5</f>
       </c>
-      <c r="J146" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K146" s="2" t="s">
+      <c r="J146" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K146" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L146" t="n">
@@ -4393,28 +4417,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="s" s="2">
+      <c r="A148" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B148" t="s" s="2">
+      <c r="B148" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C148" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D148" t="s" s="2">
+      <c r="C148" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D148" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E148" t="s" s="2">
+      <c r="E148" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F148" t="s" s="2">
+      <c r="F148" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G148" t="s" s="2">
+      <c r="G148" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H148" t="s" s="2">
+      <c r="H148" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4439,28 +4463,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="B150" t="s" s="2">
+      <c r="B150" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C150" t="s" s="2">
+      <c r="C150" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D150" t="s" s="2">
+      <c r="D150" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E150" t="s" s="2">
+      <c r="E150" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F150" t="s" s="2">
+      <c r="F150" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G150" t="s" s="2">
+      <c r="G150" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H150" t="s" s="2">
+      <c r="H150" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I150" t="s" s="2">
+      <c r="I150" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4548,10 +4572,10 @@
       <c r="I153">
         <f>((C153-C152)^2+(D153- D152)^2)^.5</f>
       </c>
-      <c r="J153" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K153" s="2" t="s">
+      <c r="J153" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K153" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L153" t="n">
@@ -4595,28 +4619,28 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="s" s="2">
+      <c r="A155" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B155" t="s" s="2">
+      <c r="B155" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C155" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D155" t="s" s="2">
+      <c r="C155" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D155" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E155" t="s" s="2">
+      <c r="E155" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F155" t="s" s="2">
+      <c r="F155" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G155" t="s" s="2">
+      <c r="G155" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H155" t="s" s="2">
+      <c r="H155" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4641,28 +4665,28 @@
       </c>
     </row>
     <row r="157">
-      <c r="B157" t="s" s="2">
+      <c r="B157" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C157" t="s" s="2">
+      <c r="C157" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D157" t="s" s="2">
+      <c r="D157" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E157" t="s" s="2">
+      <c r="E157" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F157" t="s" s="2">
+      <c r="F157" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G157" t="s" s="2">
+      <c r="G157" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H157" t="s" s="2">
+      <c r="H157" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I157" t="s" s="2">
+      <c r="I157" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -4837,10 +4861,10 @@
       <c r="I163">
         <f>((C163-C162)^2+(D163- D162)^2)^.5</f>
       </c>
-      <c r="J163" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K163" s="2" t="s">
+      <c r="J163" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K163" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L163" t="n">
@@ -4884,28 +4908,28 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="s" s="2">
+      <c r="A165" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B165" t="s" s="2">
+      <c r="B165" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C165" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D165" t="s" s="2">
+      <c r="C165" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D165" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E165" t="s" s="2">
+      <c r="E165" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F165" t="s" s="2">
+      <c r="F165" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G165" t="s" s="2">
+      <c r="G165" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H165" t="s" s="2">
+      <c r="H165" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -4930,28 +4954,28 @@
       </c>
     </row>
     <row r="167">
-      <c r="B167" t="s" s="2">
+      <c r="B167" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C167" t="s" s="2">
+      <c r="C167" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D167" t="s" s="2">
+      <c r="D167" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E167" t="s" s="2">
+      <c r="E167" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F167" t="s" s="2">
+      <c r="F167" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G167" t="s" s="2">
+      <c r="G167" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H167" t="s" s="2">
+      <c r="H167" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I167" t="s" s="2">
+      <c r="I167" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5097,10 +5121,10 @@
       <c r="I172">
         <f>((C172-C171)^2+(D172- D171)^2)^.5</f>
       </c>
-      <c r="J172" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K172" s="2" t="s">
+      <c r="J172" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K172" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L172" t="n">
@@ -5144,28 +5168,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="s" s="2">
+      <c r="A174" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B174" t="s" s="2">
+      <c r="B174" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C174" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D174" t="s" s="2">
+      <c r="C174" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D174" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E174" t="s" s="2">
+      <c r="E174" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F174" t="s" s="2">
+      <c r="F174" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G174" t="s" s="2">
+      <c r="G174" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H174" t="s" s="2">
+      <c r="H174" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5190,28 +5214,28 @@
       </c>
     </row>
     <row r="176">
-      <c r="B176" t="s" s="2">
+      <c r="B176" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C176" t="s" s="2">
+      <c r="C176" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D176" t="s" s="2">
+      <c r="D176" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E176" t="s" s="2">
+      <c r="E176" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F176" t="s" s="2">
+      <c r="F176" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G176" t="s" s="2">
+      <c r="G176" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H176" t="s" s="2">
+      <c r="H176" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I176" t="s" s="2">
+      <c r="I176" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5328,10 +5352,10 @@
       <c r="I180">
         <f>((C180-C179)^2+(D180- D179)^2)^.5</f>
       </c>
-      <c r="J180" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K180" s="2" t="s">
+      <c r="J180" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K180" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L180" t="n">
@@ -5375,28 +5399,28 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="s" s="2">
+      <c r="A182" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B182" t="s" s="2">
+      <c r="B182" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C182" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D182" t="s" s="2">
+      <c r="C182" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D182" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E182" t="s" s="2">
+      <c r="E182" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F182" t="s" s="2">
+      <c r="F182" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G182" t="s" s="2">
+      <c r="G182" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H182" t="s" s="2">
+      <c r="H182" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5421,28 +5445,28 @@
       </c>
     </row>
     <row r="184">
-      <c r="B184" t="s" s="2">
+      <c r="B184" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C184" t="s" s="2">
+      <c r="C184" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D184" t="s" s="2">
+      <c r="D184" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E184" t="s" s="2">
+      <c r="E184" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F184" t="s" s="2">
+      <c r="F184" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G184" t="s" s="2">
+      <c r="G184" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H184" t="s" s="2">
+      <c r="H184" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I184" t="s" s="2">
+      <c r="I184" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5530,10 +5554,10 @@
       <c r="I187">
         <f>((C187-C186)^2+(D187- D186)^2)^.5</f>
       </c>
-      <c r="J187" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K187" s="2" t="s">
+      <c r="J187" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K187" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L187" t="n">
@@ -5577,28 +5601,28 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="s" s="2">
+      <c r="A189" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B189" t="s" s="2">
+      <c r="B189" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C189" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D189" t="s" s="2">
+      <c r="C189" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D189" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E189" t="s" s="2">
+      <c r="E189" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F189" t="s" s="2">
+      <c r="F189" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G189" t="s" s="2">
+      <c r="G189" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H189" t="s" s="2">
+      <c r="H189" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5623,28 +5647,28 @@
       </c>
     </row>
     <row r="191">
-      <c r="B191" t="s" s="2">
+      <c r="B191" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C191" t="s" s="2">
+      <c r="C191" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D191" t="s" s="2">
+      <c r="D191" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E191" t="s" s="2">
+      <c r="E191" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F191" t="s" s="2">
+      <c r="F191" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G191" t="s" s="2">
+      <c r="G191" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H191" t="s" s="2">
+      <c r="H191" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I191" t="s" s="2">
+      <c r="I191" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -5790,10 +5814,10 @@
       <c r="I196">
         <f>((C196-C195)^2+(D196- D195)^2)^.5</f>
       </c>
-      <c r="J196" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K196" s="2" t="s">
+      <c r="J196" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K196" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L196" t="n">
@@ -5837,28 +5861,28 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="s" s="2">
+      <c r="A198" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B198" t="s" s="2">
+      <c r="B198" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C198" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D198" t="s" s="2">
+      <c r="C198" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D198" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E198" t="s" s="2">
+      <c r="E198" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F198" t="s" s="2">
+      <c r="F198" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G198" t="s" s="2">
+      <c r="G198" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H198" t="s" s="2">
+      <c r="H198" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -5883,28 +5907,28 @@
       </c>
     </row>
     <row r="200">
-      <c r="B200" t="s" s="2">
+      <c r="B200" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C200" t="s" s="2">
+      <c r="C200" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D200" t="s" s="2">
+      <c r="D200" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E200" t="s" s="2">
+      <c r="E200" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F200" t="s" s="2">
+      <c r="F200" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G200" t="s" s="2">
+      <c r="G200" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H200" t="s" s="2">
+      <c r="H200" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I200" t="s" s="2">
+      <c r="I200" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6079,10 +6103,10 @@
       <c r="I206">
         <f>((C206-C205)^2+(D206- D205)^2)^.5</f>
       </c>
-      <c r="J206" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K206" s="2" t="s">
+      <c r="J206" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K206" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L206" t="n">
@@ -6126,28 +6150,28 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" t="s" s="2">
+      <c r="A208" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B208" t="s" s="2">
+      <c r="B208" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C208" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D208" t="s" s="2">
+      <c r="C208" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D208" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E208" t="s" s="2">
+      <c r="E208" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F208" t="s" s="2">
+      <c r="F208" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G208" t="s" s="2">
+      <c r="G208" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H208" t="s" s="2">
+      <c r="H208" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6172,28 +6196,28 @@
       </c>
     </row>
     <row r="210">
-      <c r="B210" t="s" s="2">
+      <c r="B210" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C210" t="s" s="2">
+      <c r="C210" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D210" t="s" s="2">
+      <c r="D210" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E210" t="s" s="2">
+      <c r="E210" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F210" t="s" s="2">
+      <c r="F210" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G210" t="s" s="2">
+      <c r="G210" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H210" t="s" s="2">
+      <c r="H210" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I210" t="s" s="2">
+      <c r="I210" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6281,10 +6305,10 @@
       <c r="I213">
         <f>((C213-C212)^2+(D213- D212)^2)^.5</f>
       </c>
-      <c r="J213" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K213" s="2" t="s">
+      <c r="J213" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K213" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L213" t="n">
@@ -6328,28 +6352,28 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="s" s="2">
+      <c r="A215" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B215" t="s" s="2">
+      <c r="B215" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C215" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D215" t="s" s="2">
+      <c r="C215" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D215" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E215" t="s" s="2">
+      <c r="E215" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F215" t="s" s="2">
+      <c r="F215" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G215" t="s" s="2">
+      <c r="G215" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H215" t="s" s="2">
+      <c r="H215" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6374,28 +6398,28 @@
       </c>
     </row>
     <row r="217">
-      <c r="B217" t="s" s="2">
+      <c r="B217" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C217" t="s" s="2">
+      <c r="C217" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D217" t="s" s="2">
+      <c r="D217" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E217" t="s" s="2">
+      <c r="E217" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F217" t="s" s="2">
+      <c r="F217" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G217" t="s" s="2">
+      <c r="G217" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H217" t="s" s="2">
+      <c r="H217" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I217" t="s" s="2">
+      <c r="I217" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6512,10 +6536,10 @@
       <c r="I221">
         <f>((C221-C220)^2+(D221- D220)^2)^.5</f>
       </c>
-      <c r="J221" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K221" s="2" t="s">
+      <c r="J221" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K221" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L221" t="n">
@@ -6559,28 +6583,28 @@
       </c>
     </row>
     <row r="223">
-      <c r="A223" t="s" s="2">
+      <c r="A223" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B223" t="s" s="2">
+      <c r="B223" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C223" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D223" t="s" s="2">
+      <c r="C223" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D223" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E223" t="s" s="2">
+      <c r="E223" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F223" t="s" s="2">
+      <c r="F223" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G223" t="s" s="2">
+      <c r="G223" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H223" t="s" s="2">
+      <c r="H223" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6605,28 +6629,28 @@
       </c>
     </row>
     <row r="225">
-      <c r="B225" t="s" s="2">
+      <c r="B225" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C225" t="s" s="2">
+      <c r="C225" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D225" t="s" s="2">
+      <c r="D225" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E225" t="s" s="2">
+      <c r="E225" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F225" t="s" s="2">
+      <c r="F225" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G225" t="s" s="2">
+      <c r="G225" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H225" t="s" s="2">
+      <c r="H225" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I225" t="s" s="2">
+      <c r="I225" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6772,10 +6796,10 @@
       <c r="I230">
         <f>((C230-C229)^2+(D230- D229)^2)^.5</f>
       </c>
-      <c r="J230" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K230" s="2" t="s">
+      <c r="J230" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K230" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L230" t="n">
@@ -6819,28 +6843,28 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="s" s="2">
+      <c r="A232" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B232" t="s" s="2">
+      <c r="B232" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C232" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D232" t="s" s="2">
+      <c r="C232" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D232" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E232" t="s" s="2">
+      <c r="E232" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F232" t="s" s="2">
+      <c r="F232" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G232" t="s" s="2">
+      <c r="G232" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H232" t="s" s="2">
+      <c r="H232" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -6865,28 +6889,28 @@
       </c>
     </row>
     <row r="234">
-      <c r="B234" t="s" s="2">
+      <c r="B234" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C234" t="s" s="2">
+      <c r="C234" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D234" t="s" s="2">
+      <c r="D234" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E234" t="s" s="2">
+      <c r="E234" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F234" t="s" s="2">
+      <c r="F234" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G234" t="s" s="2">
+      <c r="G234" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H234" t="s" s="2">
+      <c r="H234" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I234" t="s" s="2">
+      <c r="I234" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -6974,10 +6998,10 @@
       <c r="I237">
         <f>((C237-C236)^2+(D237- D236)^2)^.5</f>
       </c>
-      <c r="J237" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K237" s="2" t="s">
+      <c r="J237" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K237" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L237" t="n">
@@ -7021,28 +7045,28 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" t="s" s="2">
+      <c r="A239" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B239" t="s" s="2">
+      <c r="B239" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C239" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D239" t="s" s="2">
+      <c r="C239" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D239" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E239" t="s" s="2">
+      <c r="E239" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F239" t="s" s="2">
+      <c r="F239" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G239" t="s" s="2">
+      <c r="G239" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H239" t="s" s="2">
+      <c r="H239" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7067,28 +7091,28 @@
       </c>
     </row>
     <row r="241">
-      <c r="B241" t="s" s="2">
+      <c r="B241" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C241" t="s" s="2">
+      <c r="C241" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D241" t="s" s="2">
+      <c r="D241" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E241" t="s" s="2">
+      <c r="E241" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F241" t="s" s="2">
+      <c r="F241" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G241" t="s" s="2">
+      <c r="G241" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H241" t="s" s="2">
+      <c r="H241" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I241" t="s" s="2">
+      <c r="I241" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7176,10 +7200,10 @@
       <c r="I244">
         <f>((C244-C243)^2+(D244- D243)^2)^.5</f>
       </c>
-      <c r="J244" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K244" s="2" t="s">
+      <c r="J244" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K244" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L244" t="n">
@@ -7223,28 +7247,28 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" t="s" s="2">
+      <c r="A246" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B246" t="s" s="2">
+      <c r="B246" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C246" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D246" t="s" s="2">
+      <c r="C246" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D246" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E246" t="s" s="2">
+      <c r="E246" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F246" t="s" s="2">
+      <c r="F246" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G246" t="s" s="2">
+      <c r="G246" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H246" t="s" s="2">
+      <c r="H246" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7269,28 +7293,28 @@
       </c>
     </row>
     <row r="248">
-      <c r="B248" t="s" s="2">
+      <c r="B248" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C248" t="s" s="2">
+      <c r="C248" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D248" t="s" s="2">
+      <c r="D248" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E248" t="s" s="2">
+      <c r="E248" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F248" t="s" s="2">
+      <c r="F248" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G248" t="s" s="2">
+      <c r="G248" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H248" t="s" s="2">
+      <c r="H248" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I248" t="s" s="2">
+      <c r="I248" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7378,10 +7402,10 @@
       <c r="I251">
         <f>((C251-C250)^2+(D251- D250)^2)^.5</f>
       </c>
-      <c r="J251" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K251" s="2" t="s">
+      <c r="J251" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K251" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L251" t="n">
@@ -7425,28 +7449,28 @@
       </c>
     </row>
     <row r="253">
-      <c r="A253" t="s" s="2">
+      <c r="A253" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B253" t="s" s="2">
+      <c r="B253" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C253" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D253" t="s" s="2">
+      <c r="C253" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D253" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E253" t="s" s="2">
+      <c r="E253" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F253" t="s" s="2">
+      <c r="F253" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G253" t="s" s="2">
+      <c r="G253" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H253" t="s" s="2">
+      <c r="H253" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7471,28 +7495,28 @@
       </c>
     </row>
     <row r="255">
-      <c r="B255" t="s" s="2">
+      <c r="B255" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C255" t="s" s="2">
+      <c r="C255" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D255" t="s" s="2">
+      <c r="D255" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E255" t="s" s="2">
+      <c r="E255" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F255" t="s" s="2">
+      <c r="F255" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G255" t="s" s="2">
+      <c r="G255" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H255" t="s" s="2">
+      <c r="H255" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I255" t="s" s="2">
+      <c r="I255" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7580,10 +7604,10 @@
       <c r="I258">
         <f>((C258-C257)^2+(D258- D257)^2)^.5</f>
       </c>
-      <c r="J258" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K258" s="2" t="s">
+      <c r="J258" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K258" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L258" t="n">
@@ -7627,28 +7651,28 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" t="s" s="2">
+      <c r="A260" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B260" t="s" s="2">
+      <c r="B260" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C260" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D260" t="s" s="2">
+      <c r="C260" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D260" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E260" t="s" s="2">
+      <c r="E260" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F260" t="s" s="2">
+      <c r="F260" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G260" t="s" s="2">
+      <c r="G260" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H260" t="s" s="2">
+      <c r="H260" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7673,28 +7697,28 @@
       </c>
     </row>
     <row r="262">
-      <c r="B262" t="s" s="2">
+      <c r="B262" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C262" t="s" s="2">
+      <c r="C262" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D262" t="s" s="2">
+      <c r="D262" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E262" t="s" s="2">
+      <c r="E262" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F262" t="s" s="2">
+      <c r="F262" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G262" t="s" s="2">
+      <c r="G262" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H262" t="s" s="2">
+      <c r="H262" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I262" t="s" s="2">
+      <c r="I262" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7782,10 +7806,10 @@
       <c r="I265">
         <f>((C265-C264)^2+(D265- D264)^2)^.5</f>
       </c>
-      <c r="J265" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K265" s="2" t="s">
+      <c r="J265" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K265" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L265" t="n">
@@ -7829,28 +7853,28 @@
       </c>
     </row>
     <row r="267">
-      <c r="A267" t="s" s="2">
+      <c r="A267" t="s" s="6">
         <v>9</v>
       </c>
-      <c r="B267" t="s" s="2">
+      <c r="B267" t="s" s="6">
         <v>10</v>
       </c>
-      <c r="C267" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D267" t="s" s="2">
+      <c r="C267" t="s" s="6">
+        <v>11</v>
+      </c>
+      <c r="D267" t="s" s="6">
         <v>12</v>
       </c>
-      <c r="E267" t="s" s="2">
+      <c r="E267" t="s" s="6">
         <v>13</v>
       </c>
-      <c r="F267" t="s" s="2">
+      <c r="F267" t="s" s="6">
         <v>14</v>
       </c>
-      <c r="G267" t="s" s="2">
+      <c r="G267" t="s" s="6">
         <v>15</v>
       </c>
-      <c r="H267" t="s" s="2">
+      <c r="H267" t="s" s="6">
         <v>16</v>
       </c>
     </row>
@@ -7875,28 +7899,28 @@
       </c>
     </row>
     <row r="269">
-      <c r="B269" t="s" s="2">
+      <c r="B269" t="s" s="6">
         <v>17</v>
       </c>
-      <c r="C269" t="s" s="2">
+      <c r="C269" t="s" s="6">
         <v>18</v>
       </c>
-      <c r="D269" t="s" s="2">
+      <c r="D269" t="s" s="6">
         <v>19</v>
       </c>
-      <c r="E269" t="s" s="2">
+      <c r="E269" t="s" s="6">
         <v>20</v>
       </c>
-      <c r="F269" t="s" s="2">
+      <c r="F269" t="s" s="6">
         <v>21</v>
       </c>
-      <c r="G269" t="s" s="2">
+      <c r="G269" t="s" s="6">
         <v>22</v>
       </c>
-      <c r="H269" t="s" s="2">
+      <c r="H269" t="s" s="6">
         <v>23</v>
       </c>
-      <c r="I269" t="s" s="2">
+      <c r="I269" t="s" s="6">
         <v>11</v>
       </c>
     </row>
@@ -7955,10 +7979,10 @@
       <c r="I271">
         <f>((C271-C270)^2+(D271- D270)^2)^.5</f>
       </c>
-      <c r="J271" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K271" s="2" t="s">
+      <c r="J271" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K271" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L271" t="n">
